--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmytro_Lukhovytskyi\eclipse-workspace\Demo\src\test\java\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8E6CBF-862E-40A3-8C8F-37EBC7EE4294}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0AC9F535-1725-47FE-9F6F-F5C2F63D0CEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{EFBBF1F8-4A80-4292-B185-60ED6C5EC7D3}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17304" windowHeight="12372" xr2:uid="{EFBBF1F8-4A80-4292-B185-60ED6C5EC7D3}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
     <sheet name="sample" sheetId="2" r:id="rId2"/>
     <sheet name="demo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,9 +67,6 @@
     <t>rrrrrr</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>me</t>
   </si>
   <si>
@@ -96,6 +89,9 @@
   </si>
   <si>
     <t>yyyyyytr</t>
+  </si>
+  <si>
+    <t>help11</t>
   </si>
 </sst>
 </file>
@@ -478,7 +474,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,10 +532,10 @@
         <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -547,30 +543,30 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="2">
         <v>4876</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
